--- a/Jupyter/simulationID/cim_0324_0620/data/bldg/before_complex_215_2.xlsx
+++ b/Jupyter/simulationID/cim_0324_0620/data/bldg/before_complex_215_2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="19">
   <si>
     <t>index</t>
   </si>
@@ -52,10 +52,25 @@
     <t>status</t>
   </si>
   <si>
+    <t>renewd</t>
+  </si>
+  <si>
+    <t>PlanID</t>
+  </si>
+  <si>
+    <t>iteration</t>
+  </si>
+  <si>
     <t>﻿215_2</t>
   </si>
   <si>
     <t>Demolished</t>
+  </si>
+  <si>
+    <t>before</t>
+  </si>
+  <si>
+    <t>502-0147678</t>
   </si>
 </sst>
 </file>
@@ -413,13 +428,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:P25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:16">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -456,8 +471,17 @@
       <c r="M1" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -468,7 +492,7 @@
         <v>0</v>
       </c>
       <c r="D2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E2">
         <v>80</v>
@@ -495,10 +519,19 @@
         <v>534.864</v>
       </c>
       <c r="M2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+        <v>16</v>
+      </c>
+      <c r="N2" t="s">
+        <v>17</v>
+      </c>
+      <c r="O2" t="s">
+        <v>18</v>
+      </c>
+      <c r="P2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -509,7 +542,7 @@
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E3">
         <v>80</v>
@@ -536,10 +569,19 @@
         <v>534.864</v>
       </c>
       <c r="M3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>16</v>
+      </c>
+      <c r="N3" t="s">
+        <v>17</v>
+      </c>
+      <c r="O3" t="s">
+        <v>18</v>
+      </c>
+      <c r="P3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -550,7 +592,7 @@
         <v>2</v>
       </c>
       <c r="D4" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E4">
         <v>80</v>
@@ -577,10 +619,19 @@
         <v>534.864</v>
       </c>
       <c r="M4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>16</v>
+      </c>
+      <c r="N4" t="s">
+        <v>17</v>
+      </c>
+      <c r="O4" t="s">
+        <v>18</v>
+      </c>
+      <c r="P4">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -591,7 +642,7 @@
         <v>3</v>
       </c>
       <c r="D5" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E5">
         <v>80</v>
@@ -618,10 +669,19 @@
         <v>534.864</v>
       </c>
       <c r="M5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>16</v>
+      </c>
+      <c r="N5" t="s">
+        <v>17</v>
+      </c>
+      <c r="O5" t="s">
+        <v>18</v>
+      </c>
+      <c r="P5">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -632,7 +692,7 @@
         <v>4</v>
       </c>
       <c r="D6" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E6">
         <v>80</v>
@@ -659,10 +719,19 @@
         <v>534.864</v>
       </c>
       <c r="M6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>16</v>
+      </c>
+      <c r="N6" t="s">
+        <v>17</v>
+      </c>
+      <c r="O6" t="s">
+        <v>18</v>
+      </c>
+      <c r="P6">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -673,7 +742,7 @@
         <v>5</v>
       </c>
       <c r="D7" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E7">
         <v>80</v>
@@ -700,10 +769,19 @@
         <v>534.864</v>
       </c>
       <c r="M7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>16</v>
+      </c>
+      <c r="N7" t="s">
+        <v>17</v>
+      </c>
+      <c r="O7" t="s">
+        <v>18</v>
+      </c>
+      <c r="P7">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -714,7 +792,7 @@
         <v>6</v>
       </c>
       <c r="D8" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E8">
         <v>80</v>
@@ -741,10 +819,19 @@
         <v>534.864</v>
       </c>
       <c r="M8" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>16</v>
+      </c>
+      <c r="N8" t="s">
+        <v>17</v>
+      </c>
+      <c r="O8" t="s">
+        <v>18</v>
+      </c>
+      <c r="P8">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -755,7 +842,7 @@
         <v>7</v>
       </c>
       <c r="D9" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E9">
         <v>80</v>
@@ -782,10 +869,19 @@
         <v>534.864</v>
       </c>
       <c r="M9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>16</v>
+      </c>
+      <c r="N9" t="s">
+        <v>17</v>
+      </c>
+      <c r="O9" t="s">
+        <v>18</v>
+      </c>
+      <c r="P9">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -796,7 +892,7 @@
         <v>8</v>
       </c>
       <c r="D10" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E10">
         <v>80</v>
@@ -823,10 +919,19 @@
         <v>534.864</v>
       </c>
       <c r="M10" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>16</v>
+      </c>
+      <c r="N10" t="s">
+        <v>17</v>
+      </c>
+      <c r="O10" t="s">
+        <v>18</v>
+      </c>
+      <c r="P10">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -837,7 +942,7 @@
         <v>9</v>
       </c>
       <c r="D11" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E11">
         <v>80</v>
@@ -864,10 +969,19 @@
         <v>534.864</v>
       </c>
       <c r="M11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>16</v>
+      </c>
+      <c r="N11" t="s">
+        <v>17</v>
+      </c>
+      <c r="O11" t="s">
+        <v>18</v>
+      </c>
+      <c r="P11">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -878,7 +992,7 @@
         <v>10</v>
       </c>
       <c r="D12" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E12">
         <v>80</v>
@@ -905,10 +1019,19 @@
         <v>534.864</v>
       </c>
       <c r="M12" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>16</v>
+      </c>
+      <c r="N12" t="s">
+        <v>17</v>
+      </c>
+      <c r="O12" t="s">
+        <v>18</v>
+      </c>
+      <c r="P12">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -919,7 +1042,7 @@
         <v>11</v>
       </c>
       <c r="D13" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E13">
         <v>80</v>
@@ -946,10 +1069,19 @@
         <v>534.864</v>
       </c>
       <c r="M13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>16</v>
+      </c>
+      <c r="N13" t="s">
+        <v>17</v>
+      </c>
+      <c r="O13" t="s">
+        <v>18</v>
+      </c>
+      <c r="P13">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -960,7 +1092,7 @@
         <v>12</v>
       </c>
       <c r="D14" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E14">
         <v>80</v>
@@ -987,10 +1119,19 @@
         <v>534.864</v>
       </c>
       <c r="M14" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>16</v>
+      </c>
+      <c r="N14" t="s">
+        <v>17</v>
+      </c>
+      <c r="O14" t="s">
+        <v>18</v>
+      </c>
+      <c r="P14">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1001,7 +1142,7 @@
         <v>13</v>
       </c>
       <c r="D15" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E15">
         <v>80</v>
@@ -1028,10 +1169,19 @@
         <v>534.864</v>
       </c>
       <c r="M15" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>16</v>
+      </c>
+      <c r="N15" t="s">
+        <v>17</v>
+      </c>
+      <c r="O15" t="s">
+        <v>18</v>
+      </c>
+      <c r="P15">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1042,7 +1192,7 @@
         <v>14</v>
       </c>
       <c r="D16" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E16">
         <v>80</v>
@@ -1069,10 +1219,19 @@
         <v>534.864</v>
       </c>
       <c r="M16" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>16</v>
+      </c>
+      <c r="N16" t="s">
+        <v>17</v>
+      </c>
+      <c r="O16" t="s">
+        <v>18</v>
+      </c>
+      <c r="P16">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1083,7 +1242,7 @@
         <v>15</v>
       </c>
       <c r="D17" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E17">
         <v>80</v>
@@ -1110,10 +1269,19 @@
         <v>534.864</v>
       </c>
       <c r="M17" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>16</v>
+      </c>
+      <c r="N17" t="s">
+        <v>17</v>
+      </c>
+      <c r="O17" t="s">
+        <v>18</v>
+      </c>
+      <c r="P17">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1124,7 +1292,7 @@
         <v>16</v>
       </c>
       <c r="D18" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E18">
         <v>80</v>
@@ -1151,10 +1319,19 @@
         <v>534.864</v>
       </c>
       <c r="M18" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>16</v>
+      </c>
+      <c r="N18" t="s">
+        <v>17</v>
+      </c>
+      <c r="O18" t="s">
+        <v>18</v>
+      </c>
+      <c r="P18">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1165,7 +1342,7 @@
         <v>17</v>
       </c>
       <c r="D19" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E19">
         <v>80</v>
@@ -1192,10 +1369,19 @@
         <v>534.864</v>
       </c>
       <c r="M19" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>16</v>
+      </c>
+      <c r="N19" t="s">
+        <v>17</v>
+      </c>
+      <c r="O19" t="s">
+        <v>18</v>
+      </c>
+      <c r="P19">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1206,7 +1392,7 @@
         <v>18</v>
       </c>
       <c r="D20" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E20">
         <v>80</v>
@@ -1233,10 +1419,19 @@
         <v>534.864</v>
       </c>
       <c r="M20" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>16</v>
+      </c>
+      <c r="N20" t="s">
+        <v>17</v>
+      </c>
+      <c r="O20" t="s">
+        <v>18</v>
+      </c>
+      <c r="P20">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1247,7 +1442,7 @@
         <v>19</v>
       </c>
       <c r="D21" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E21">
         <v>80</v>
@@ -1274,10 +1469,19 @@
         <v>534.864</v>
       </c>
       <c r="M21" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>16</v>
+      </c>
+      <c r="N21" t="s">
+        <v>17</v>
+      </c>
+      <c r="O21" t="s">
+        <v>18</v>
+      </c>
+      <c r="P21">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1288,7 +1492,7 @@
         <v>20</v>
       </c>
       <c r="D22" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E22">
         <v>80</v>
@@ -1315,10 +1519,19 @@
         <v>534.864</v>
       </c>
       <c r="M22" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>16</v>
+      </c>
+      <c r="N22" t="s">
+        <v>17</v>
+      </c>
+      <c r="O22" t="s">
+        <v>18</v>
+      </c>
+      <c r="P22">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1329,7 +1542,7 @@
         <v>21</v>
       </c>
       <c r="D23" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E23">
         <v>80</v>
@@ -1356,10 +1569,19 @@
         <v>534.864</v>
       </c>
       <c r="M23" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>16</v>
+      </c>
+      <c r="N23" t="s">
+        <v>17</v>
+      </c>
+      <c r="O23" t="s">
+        <v>18</v>
+      </c>
+      <c r="P23">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1370,7 +1592,7 @@
         <v>22</v>
       </c>
       <c r="D24" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E24">
         <v>80</v>
@@ -1397,10 +1619,19 @@
         <v>534.864</v>
       </c>
       <c r="M24" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>16</v>
+      </c>
+      <c r="N24" t="s">
+        <v>17</v>
+      </c>
+      <c r="O24" t="s">
+        <v>18</v>
+      </c>
+      <c r="P24">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1411,7 +1642,7 @@
         <v>23</v>
       </c>
       <c r="D25" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E25">
         <v>80</v>
@@ -1438,7 +1669,16 @@
         <v>534.864</v>
       </c>
       <c r="M25" t="s">
-        <v>13</v>
+        <v>16</v>
+      </c>
+      <c r="N25" t="s">
+        <v>17</v>
+      </c>
+      <c r="O25" t="s">
+        <v>18</v>
+      </c>
+      <c r="P25">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
